--- a/demo.xlsx
+++ b/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhao/Documents/quarantine/UE/new_0424/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C2D74-6A34-F740-B7CA-08DD7A894461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E688FAF2-3ECF-3E46-B12A-2A879FA1D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11080" yWindow="520" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="71">
   <si>
     <t>demand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>9200+200 = 9400</t>
+  </si>
+  <si>
+    <t>raised + ic1</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -503,19 +506,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3628,10 +3625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740AFA3C-08B4-D94A-916C-447A1687533F}">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="G29" zoomScale="86" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3917,7 +3914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -3990,7 +3987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -4055,7 +4052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4111,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -4164,7 +4161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -4202,31 +4199,31 @@
         <v>4400</v>
       </c>
       <c r="S24">
-        <f>R24+R25*(S23-R23)</f>
+        <f t="shared" ref="S24:X24" si="0">R24+R25*(S23-R23)</f>
         <v>4599.9999999199999</v>
       </c>
       <c r="T24">
-        <f>S24+S25*(T23-S23)</f>
+        <f t="shared" si="0"/>
         <v>5600</v>
       </c>
       <c r="U24">
-        <f>T24+T25*(U23-T23)</f>
+        <f t="shared" si="0"/>
         <v>5783.3333333326</v>
       </c>
       <c r="V24">
-        <f>U24+U25*(V23-U23)</f>
+        <f t="shared" si="0"/>
         <v>7200.0000000004002</v>
       </c>
       <c r="W24">
-        <f>V24+V25*(W23-V23)</f>
+        <f t="shared" si="0"/>
         <v>8800.0000000004002</v>
       </c>
       <c r="X24">
-        <f>W24+W25*(X23-W23)</f>
+        <f t="shared" si="0"/>
         <v>10400.0000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -4308,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>8400.0000000799591</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -4423,7 +4420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -4451,29 +4448,29 @@
       <c r="N32">
         <v>4</v>
       </c>
-      <c r="P32" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
+      <c r="R32" t="s">
+        <v>70</v>
       </c>
       <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
         <v>2</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>3</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>4</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>57</v>
       </c>
@@ -4496,34 +4493,43 @@
         <v>11.666666660000001</v>
       </c>
       <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
         <v>40</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>50</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>57</v>
       </c>
-      <c r="R33">
-        <v>10</v>
-      </c>
-      <c r="S33">
-        <v>11.666666666599999</v>
-      </c>
       <c r="T33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>21.666666666659999</v>
+        <v>10</v>
       </c>
       <c r="V33">
+        <v>11.666666660000001</v>
+      </c>
+      <c r="W33">
+        <v>20</v>
+      </c>
+      <c r="X33">
+        <v>21.666666666600001</v>
+      </c>
+      <c r="Y33">
+        <v>30</v>
+      </c>
+      <c r="Z33">
         <v>40</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -4551,40 +4557,46 @@
         <v>4599.9999995999997</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:N34" si="0">L34+L35*(M33-L33)</f>
-        <v>8000.0000003999994</v>
+        <f t="shared" ref="M34:O34" si="1">L34+L35*(M33-L33)</f>
+        <v>5600.0000003999994</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>8600.0000003999994</v>
-      </c>
-      <c r="Q34" t="s">
+        <f t="shared" si="1"/>
+        <v>7800.0000003999994</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>8400.0000003999994</v>
+      </c>
+      <c r="S34" t="s">
         <v>56</v>
       </c>
-      <c r="R34">
-        <v>4400</v>
-      </c>
-      <c r="S34">
-        <f>R34+R35*(S33-R33)</f>
-        <v>4599.9999999920001</v>
-      </c>
       <c r="T34">
-        <f>S34+S35*(T33-S33)</f>
+        <v>3800</v>
+      </c>
+      <c r="U34">
+        <v>4500</v>
+      </c>
+      <c r="V34">
+        <v>4600</v>
+      </c>
+      <c r="W34">
         <v>5600</v>
       </c>
-      <c r="U34">
-        <v>4401</v>
-      </c>
-      <c r="V34">
-        <f>U34+U35*(V33-U33)</f>
-        <v>7517.6666666678002</v>
-      </c>
-      <c r="W34">
-        <f>V34+V35*(W33-V33)</f>
-        <v>9217.6666666677993</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34">
+        <v>5783.3333333</v>
+      </c>
+      <c r="Y34">
+        <v>7200</v>
+      </c>
+      <c r="Z34">
+        <v>8800</v>
+      </c>
+      <c r="AA34">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -4604,207 +4616,73 @@
         <v>120</v>
       </c>
       <c r="M35">
+        <v>110</v>
+      </c>
+      <c r="N35">
         <v>60</v>
       </c>
-      <c r="Q35" t="s">
-        <v>67</v>
-      </c>
-      <c r="R35">
+      <c r="S35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35">
+        <v>70</v>
+      </c>
+      <c r="U35">
+        <v>60</v>
+      </c>
+      <c r="V35">
         <v>120</v>
       </c>
-      <c r="S35">
-        <v>120</v>
-      </c>
-      <c r="T35">
+      <c r="W35">
         <v>110</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>170</v>
       </c>
-      <c r="V35">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H37" s="16" t="s">
+      <c r="Y35">
+        <v>160</v>
+      </c>
+      <c r="Z35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
         <v>68</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="M37">
+      <c r="M43" s="15">
         <v>3</v>
       </c>
-      <c r="N37">
+      <c r="N43" s="15">
         <v>4</v>
       </c>
-      <c r="O37">
+      <c r="O43" s="15">
         <v>5</v>
       </c>
-      <c r="P37">
+      <c r="P43" s="15">
         <v>6</v>
       </c>
-      <c r="Q37">
+      <c r="Q43" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H38" s="16"/>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>11.666666660000001</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>21.666666660000001</v>
-      </c>
-      <c r="O38">
-        <v>30</v>
-      </c>
-      <c r="P38">
-        <v>40</v>
-      </c>
-      <c r="Q38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H39" s="16"/>
-      <c r="I39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39">
-        <v>3800</v>
-      </c>
-      <c r="K39">
-        <f>J39+J40*(K38-J38)</f>
-        <v>4500</v>
-      </c>
-      <c r="L39">
-        <f>K39+K40*(L38-K38)</f>
-        <v>4599.9999995999997</v>
-      </c>
-      <c r="M39">
-        <f>L39+L40*(M38-L38)</f>
-        <v>5600.0000003999994</v>
-      </c>
-      <c r="N39">
-        <f>M39+M40*(N38-M38)</f>
-        <v>5799.9999995999997</v>
-      </c>
-      <c r="O39">
-        <f>N39+N40*(O38-N38)</f>
-        <v>6800.0000003999994</v>
-      </c>
-      <c r="P39">
-        <f>O39+O40*(P38-O38)</f>
-        <v>8000.0000003999994</v>
-      </c>
-      <c r="Q39">
-        <f>P39+P40*(Q38-P38)</f>
-        <v>8600.0000003999994</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H40" s="16"/>
-      <c r="I40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40">
-        <v>70</v>
-      </c>
-      <c r="K40">
-        <v>60</v>
-      </c>
-      <c r="L40">
-        <v>120</v>
-      </c>
-      <c r="M40">
-        <v>120</v>
-      </c>
-      <c r="N40">
-        <v>120</v>
-      </c>
-      <c r="O40">
-        <v>120</v>
-      </c>
-      <c r="P40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H42" s="16"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H43" s="16"/>
-      <c r="J43" s="12">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <v>1</v>
-      </c>
-      <c r="L43" s="12">
-        <v>2</v>
-      </c>
-      <c r="M43" s="19">
-        <v>3</v>
-      </c>
-      <c r="N43" s="19">
-        <v>4</v>
-      </c>
-      <c r="O43" s="19">
-        <v>5</v>
-      </c>
-      <c r="P43" s="19">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="19">
-        <v>7</v>
-      </c>
-      <c r="R43" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H44" s="16"/>
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
@@ -4813,29 +4691,28 @@
       <c r="L44">
         <v>11.666666666659999</v>
       </c>
-      <c r="M44" s="20">
-        <v>20</v>
-      </c>
-      <c r="N44" s="20">
+      <c r="M44" s="15">
+        <v>20</v>
+      </c>
+      <c r="N44" s="15">
         <v>21.666666666000001</v>
       </c>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20">
+      <c r="O44" s="15">
         <v>30</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="P44" s="15">
         <v>40</v>
       </c>
-      <c r="R44" s="20">
+      <c r="Q44" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H45" s="16"/>
+      <c r="R44" s="15"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="I45" t="s">
         <v>56</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45">
         <v>3800</v>
       </c>
       <c r="K45">
@@ -4846,280 +4723,164 @@
         <f>K45+K46*(L44-K44)</f>
         <v>4599.9999999995998</v>
       </c>
-      <c r="M45" s="20">
-        <f t="shared" ref="M45:N45" si="1">L45+L46*(M44-L44)</f>
+      <c r="M45" s="15">
+        <f t="shared" ref="M45:N45" si="2">L45+L46*(M44-L44)</f>
         <v>5600.0000000004002</v>
       </c>
-      <c r="N45" s="20">
-        <f t="shared" si="1"/>
-        <v>5799.9999999204001</v>
-      </c>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19">
+      <c r="N45" s="15">
+        <v>5783.3333329999996</v>
+      </c>
+      <c r="O45" s="15">
         <v>7200</v>
       </c>
-      <c r="Q45" s="20">
-        <f>P45+P46*(Q44-P44)</f>
+      <c r="P45" s="15">
         <v>8800</v>
       </c>
-      <c r="R45" s="20">
-        <f>Q45+Q46*(R44-Q44)</f>
+      <c r="Q45" s="15">
         <v>10400</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H46" s="16"/>
+      <c r="R45" s="15"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46">
         <v>70</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46">
         <v>60</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46">
         <v>120</v>
       </c>
-      <c r="M46" s="19">
-        <v>120</v>
-      </c>
-      <c r="N46" s="19">
-        <v>120</v>
-      </c>
-      <c r="O46" s="19">
+      <c r="M46" s="15">
+        <v>110</v>
+      </c>
+      <c r="N46" s="15">
         <v>170</v>
       </c>
-      <c r="P46" s="19">
+      <c r="O46" s="15">
         <v>160</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="P46" s="15">
         <v>160</v>
       </c>
-      <c r="R46" s="20"/>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
         <v>65</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48">
         <v>3</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48">
         <v>4</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O48">
         <v>5</v>
       </c>
       <c r="P48" s="9">
         <v>6</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="3">
         <v>7</v>
       </c>
-      <c r="R48" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="M49" s="16">
-        <v>0</v>
-      </c>
-      <c r="N49" s="16">
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <v>1.666666666</v>
       </c>
-      <c r="O49" s="16"/>
-      <c r="P49" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>20</v>
-      </c>
-      <c r="R49" s="17">
+      <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="M50" s="16">
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M50">
         <v>7100</v>
       </c>
-      <c r="N50" s="16">
-        <f t="shared" ref="N50" si="2">M50+M51*(N49-M49)</f>
-        <v>7383.33333322</v>
-      </c>
-      <c r="O50" s="12"/>
-      <c r="P50" s="21">
-        <v>9200</v>
-      </c>
-      <c r="Q50" s="16">
-        <f>P50+P51*(Q49-P49)</f>
-        <v>11300</v>
-      </c>
-      <c r="R50" s="17">
-        <f>Q50+Q51*(R49-Q49)</f>
-        <v>13400</v>
-      </c>
-    </row>
-    <row r="51" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="M51" s="12">
-        <v>170</v>
-      </c>
-      <c r="N51" s="12">
-        <v>170</v>
-      </c>
-      <c r="O51" s="12">
+      <c r="N50">
+        <f t="shared" ref="N50:O50" si="3">M50+M51*(N49-M49)</f>
+        <v>7366.6666665599996</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>9200.0000000399996</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="P50" si="4">O50+O51*(P49-O49)</f>
+        <v>11300.00000004</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50" si="5">P50+P51*(Q49-P49)</f>
+        <v>13400.00000004</v>
+      </c>
+    </row>
+    <row r="51" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>160</v>
+      </c>
+      <c r="N51">
         <v>220</v>
       </c>
-      <c r="P51" s="13">
+      <c r="O51">
         <v>210</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="P51" s="11">
         <v>210</v>
       </c>
-      <c r="R51" s="18"/>
-    </row>
-    <row r="53" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="Q51" s="2">
+        <v>210</v>
+      </c>
+      <c r="R51" s="14"/>
+    </row>
+    <row r="53" spans="13:18" x14ac:dyDescent="0.2">
       <c r="P53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-    </row>
-    <row r="55" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-    </row>
-    <row r="56" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-    </row>
-    <row r="57" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-    </row>
-    <row r="58" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-    </row>
-    <row r="59" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="16"/>
-    </row>
-    <row r="61" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-    </row>
-    <row r="62" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-    </row>
-    <row r="63" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-    </row>
-    <row r="64" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-    </row>
-    <row r="65" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-    </row>
-    <row r="66" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
+    <row r="55" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>10</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>9400</v>
+      </c>
+      <c r="P56">
+        <v>12000</v>
+      </c>
+      <c r="Q56">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="57" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>260</v>
+      </c>
+      <c r="P57">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
